--- a/Excel/PassiveSkillConfig@cs.xlsx
+++ b/Excel/PassiveSkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12684"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,35 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>ATKAdd,MaxHpAdd</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATKAdd,MaxHpAdd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CRI,CRIDamage</t>
+    </r>
   </si>
   <si>
-    <t>250, 3000</t>
+    <t>250, 3000,10,10</t>
   </si>
   <si>
-    <t>550, 6500</t>
+    <t>550, 6500,20,20</t>
   </si>
   <si>
-    <t>600, 7500</t>
+    <t>600, 7500,20,30</t>
   </si>
 </sst>
 </file>
@@ -103,10 +122,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -718,9 +738,9 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -732,11 +752,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,22 +1120,22 @@
   <dimension ref="C2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="D8 E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="55" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.8796296296296" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1137,9 +1154,9 @@
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" ht="16.2" spans="3:11">
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" ht="15" spans="3:11">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1153,9 +1170,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" ht="16.2" spans="3:11">
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" ht="15" spans="3:11">
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1169,9 +1186,9 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" ht="14.4" spans="3:11">
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1181,13 +1198,13 @@
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" ht="14.4" spans="3:9">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1197,12 +1214,12 @@
       <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" ht="14.4" spans="3:9">
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1212,73 +1229,73 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" ht="14.4" spans="4:11">
-      <c r="D9" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="D9" s="9"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" ht="14.4" spans="4:11">
-      <c r="D10" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="D10" s="9"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" ht="14.4" spans="4:11">
-      <c r="D11" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="D11" s="9"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" ht="14.4" spans="4:11">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" ht="14.4" spans="3:11">
-      <c r="C13" s="12"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" ht="14.4" spans="3:8">
-      <c r="C14" s="12"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" ht="14.4" spans="3:5">
-      <c r="C15" s="12"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" ht="14.4" spans="3:5">
-      <c r="C16" s="12"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/PassiveSkillConfig@cs.xlsx
+++ b/Excel/PassiveSkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
   <dimension ref="C2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
